--- a/biology/Médecine/Jacques_Postel/Jacques_Postel.xlsx
+++ b/biology/Médecine/Jacques_Postel/Jacques_Postel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Postel, né le 1er janvier 1927 et mort le 25 novembre 2022, est un psychiatre français, historien de la psychiatrie, et rédacteur de la revue L'Évolution psychiatrique de 1984 à 1991[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Postel, né le 1er janvier 1927 et mort le 25 novembre 2022, est un psychiatre français, historien de la psychiatrie, et rédacteur de la revue L'Évolution psychiatrique de 1984 à 1991.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il soutient sa thèse de doctorat en médecine à l'université de Lyon en 1955[2]. Il est psychanalyste et neuropsychiatre, exerçant notamment en tant que chef de service au Centre hospitalier Sainte-Anne, à Paris[3]. Il fut professeur associé de psychopathologie clinique à l'université Paris-VII, proche de Daniel Lagache et président honoraire de la Société internationale d'histoire de la psychiatrie et de la psychanalyse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il soutient sa thèse de doctorat en médecine à l'université de Lyon en 1955. Il est psychanalyste et neuropsychiatre, exerçant notamment en tant que chef de service au Centre hospitalier Sainte-Anne, à Paris. Il fut professeur associé de psychopathologie clinique à l'université Paris-VII, proche de Daniel Lagache et président honoraire de la Société internationale d'histoire de la psychiatrie et de la psychanalyse.
 Avec Claude Quétel, il a notamment publié un ouvrage collectif de référence : Nouvelle Histoire de la psychiatrie, Privat, 1983.
-Il meurt le 25 novembre 2022, à l'âge de 95 ans[4].
+Il meurt le 25 novembre 2022, à l'âge de 95 ans.
 </t>
         </is>
       </c>
@@ -546,15 +560,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Principaux ouvrages
-Contribution à l'étude des troubles de la reconnaissance de l'image spéculaire de soi chez les personnes âgées : l'épreuve spéculaire dans les démences tardives, 1967.
+          <t>Principaux ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Contribution à l'étude des troubles de la reconnaissance de l'image spéculaire de soi chez les personnes âgées : l'épreuve spéculaire dans les démences tardives, 1967.
 L'évolution psychique de l'enfant : intelligence, affectivité, langage, avec Bernard Barrau, préface de Léon Michaux, J.-B. Baillière et fils, 1970.
 Genèse de la psychiatrie : les premiers écrits psychiatriques de Philippe Pinel, Le Sycomore, 1981.
 La Vie et l’œuvre psychiatrique de Frantz Fanon, avec Claudine Razanajao, Eres, 2007.
-Éléments pour une histoire de la psychiatrie occidentale, Paris, L’Harmattan, 2007[5]
-Trois destins de femmes en asile psychiatrique : Anne-Marie, Madeleine, Suzanne, avec Jeannine Poitau, Paris, L'Harmattan, 2014.
-Autres ouvrages
-Trilogie baroque, 2018.
+Éléments pour une histoire de la psychiatrie occidentale, Paris, L’Harmattan, 2007
+Trois destins de femmes en asile psychiatrique : Anne-Marie, Madeleine, Suzanne, avec Jeannine Poitau, Paris, L'Harmattan, 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Postel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Postel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trilogie baroque, 2018.
 De Machado à Lautréamont, avec Jeannine Poitau, Toulon, Les Presses du midi, 2017.
 Étrange mission, 2015.
 La Folie maniaque-dépressive, de Emil Kraepelin, traduction par Georges Poyer, Grenoble, Jérôme Millon, 2013.
@@ -569,9 +622,43 @@
 De la lypémanie ou mélancolie, de Jean-Étienne Esquirol, présentation avec Pierre Fédida, Toulouse, Privat, 1976.
 De la folie, de Étienne-Jean Georget, Toulouse, Privat, 1971.
 Leçons cliniques sur la démence précoce et la psychose maniaco-dépressive, de Emil Kraepelin, Toulouse, Privat, 1970.
-L'Expression électrique des accidents vasculaires cérébraux d'origine traumatique, thèse de doctorat, université de Lyon, 1955.
-Articles
-La place de Pierre Janet dans l'histoire des névroses à la fin du XIXe siècle, in: Bulletin de psychologie, n°385, 1988.
+L'Expression électrique des accidents vasculaires cérébraux d'origine traumatique, thèse de doctorat, université de Lyon, 1955.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Postel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Postel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La place de Pierre Janet dans l'histoire des névroses à la fin du XIXe siècle, in: Bulletin de psychologie, n°385, 1988.
 Les troubles du langage dans la schizophrénie, avec V. Wanonnou, in: Bulletin de psychologie, n°339, 1979.
 La perception auditive de l'espace chez le nourrisson, avec M. Postel, in: Bulletin de psychologie, n°322, 1976.
 Histoire et formes cliniques de la paranoïa, in: Bulletin de psychologie, n°317, 1975.
